--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>37.83</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银融华债券</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>70.60</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -716,15 +796,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>37.28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银融华债券</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -1302,12 +1302,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1195</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="D3" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银融华债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>98.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1955</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -713,188 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>25.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1071</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0962</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银融华债券</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>70.60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,36 +983,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>37.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.1955</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1243,36 +1021,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>121001</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>国投瑞银融华债券</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1286,96 +1216,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600236-桂冠电力.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -549,6 +566,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +1037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1210,7 +1321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
